--- a/xlsx/TechCrunch_intext.xlsx
+++ b/xlsx/TechCrunch_intext.xlsx
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_TechCrunch</t>
+    <t>网志</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_TechCrunch</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BE%8E%E5%85%83</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/AIM_(%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F)</t>
   </si>
   <si>
-    <t>AIM (應用程式)</t>
+    <t>AIM (应用程式)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Oath</t>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
